--- a/docs/ToDo Excel von Suada.xlsx
+++ b/docs/ToDo Excel von Suada.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suada\Documents\ese2018-team8\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022BC62C-E4F7-4C74-9727-0931553CA8E2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,184 +27,184 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="94">
   <si>
-    <t xml:space="preserve">TEAM 8 TODO TABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERSION 1.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokumente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bemerkung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequenzdiagramm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UML Diagramm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erledigt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirements Specifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Case Diagramm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designvorschlag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muss evtl. nach Manuels Wünschen überarbeitet werden. (Suada)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designvorschlag2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dieser ist für uns. Soll detaillierter sein. Darüber könnten wir am Montag 12.November reden.(Suada)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krähenfussdiagramm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortlaufend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Table wöchentlich ausfüllen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmierung Backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmierung Frontend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisation/Sonstiges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prototyp</t>
+    <t>TEAM 8 TODO TABLE</t>
+  </si>
+  <si>
+    <t>VERSION 1.0.0</t>
+  </si>
+  <si>
+    <t>Dokumente</t>
+  </si>
+  <si>
+    <t>Quelle</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t>Bemerkung</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramm</t>
+  </si>
+  <si>
+    <t>UML Diagramm</t>
+  </si>
+  <si>
+    <t>Erledigt</t>
+  </si>
+  <si>
+    <t>Requirements Specifications</t>
+  </si>
+  <si>
+    <t>Use Case Diagramm</t>
+  </si>
+  <si>
+    <t>Designvorschlag</t>
+  </si>
+  <si>
+    <t>Muss evtl. nach Manuels Wünschen überarbeitet werden. (Suada)</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Designvorschlag2</t>
+  </si>
+  <si>
+    <t>Dieser ist für uns. Soll detaillierter sein. Darüber könnten wir am Montag 12.November reden.(Suada)</t>
+  </si>
+  <si>
+    <t>Krähenfussdiagramm</t>
+  </si>
+  <si>
+    <t>Fortlaufend</t>
+  </si>
+  <si>
+    <t>Time Table wöchentlich ausfüllen.</t>
+  </si>
+  <si>
+    <t>Programmierung Backend</t>
+  </si>
+  <si>
+    <t>Programmierung Frontend</t>
+  </si>
+  <si>
+    <t>Organisation/Sonstiges</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Prototyp</t>
   </si>
   <si>
     <t xml:space="preserve"> -</t>
   </si>
   <si>
-    <t xml:space="preserve">Bildung von Team Frontend und Team  Backend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dies soll schleunigst getan werden. Spätestens am MONTAG! (Suada)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pensum implementieren und Jobinserat dadurch erweitern.</t>
+    <t>Bildung von Team Frontend und Team  Backend.</t>
+  </si>
+  <si>
+    <t>Dies soll schleunigst getan werden. Spätestens am MONTAG! (Suada)</t>
+  </si>
+  <si>
+    <t>Pensum implementieren und Jobinserat dadurch erweitern.</t>
   </si>
   <si>
     <t xml:space="preserve">Branche implementieren und damit Jobinserate erweitern  </t>
   </si>
   <si>
-    <t xml:space="preserve">Milestone1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technologien Kennenlernen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontakt implementieren und Jobinserat dadruch erweitern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung von weiteren Components (z.B-joblisting, newjoblisting, joblistingdetail)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD Operationen für Jobinserate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git Tafel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. - 14.Nov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authentifizierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verbindung der Components mittels Routing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment to Heroku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git Textdoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authorization vervollständigen; USER, INSERATE, SKILL. COMPANY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKILL wurde weggelassen (Simone)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigation zwischen Subseiten verbessern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milestone2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD Operationen für Benutzeradmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noch offen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update und Delete sind noch nicht implementiert (Simone)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7- 14.Nov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin/ Moderator: Verifizierte User: Schnittstelle für isVerified-Flag Admin.</t>
+    <t>Milestone1</t>
+  </si>
+  <si>
+    <t>Technologien Kennenlernen</t>
+  </si>
+  <si>
+    <t>Kontakt implementieren und Jobinserat dadruch erweitern</t>
+  </si>
+  <si>
+    <t>Erstellung von weiteren Components (z.B-joblisting, newjoblisting, joblistingdetail)</t>
+  </si>
+  <si>
+    <t>CRUD Operationen für Jobinserate</t>
+  </si>
+  <si>
+    <t>Git Tafel</t>
+  </si>
+  <si>
+    <t>5. - 14.Nov</t>
+  </si>
+  <si>
+    <t>Authentifizierung</t>
+  </si>
+  <si>
+    <t>Verbindung der Components mittels Routing.</t>
+  </si>
+  <si>
+    <t>Deployment to Heroku</t>
+  </si>
+  <si>
+    <t>Git Textdoc</t>
+  </si>
+  <si>
+    <t>Authorization vervollständigen; USER, INSERATE, SKILL. COMPANY</t>
+  </si>
+  <si>
+    <t>SKILL wurde weggelassen (Simone)</t>
+  </si>
+  <si>
+    <t>Navigation zwischen Subseiten verbessern.</t>
+  </si>
+  <si>
+    <t>Milestone2</t>
+  </si>
+  <si>
+    <t>CRUD Operationen für Benutzeradmin</t>
+  </si>
+  <si>
+    <t>noch offen</t>
+  </si>
+  <si>
+    <t>Update und Delete sind noch nicht implementiert (Simone)</t>
+  </si>
+  <si>
+    <t>7- 14.Nov</t>
+  </si>
+  <si>
+    <t>Admin/ Moderator: Verifizierte User: Schnittstelle für isVerified-Flag Admin.</t>
   </si>
   <si>
     <t xml:space="preserve">Temporär: Bestätigen in Übersicht. (Timo (aus Textdoc)) </t>
   </si>
   <si>
-    <t xml:space="preserve">Erstellung einer Login Maske</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milestone 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD Operationen für Inserate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update und Delete sind noch offen (Simone)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 - 14.Nov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin/ Moderator: Verifizierte Inserate: Schnittstelle für isVerified-Flag Admin.</t>
+    <t>Erstellung einer Login Maske</t>
+  </si>
+  <si>
+    <t>Milestone 2</t>
+  </si>
+  <si>
+    <t>CRUD Operationen für Inserate</t>
+  </si>
+  <si>
+    <t>update und Delete sind noch offen (Simone)</t>
+  </si>
+  <si>
+    <t>7 - 14.Nov</t>
+  </si>
+  <si>
+    <t>Admin/ Moderator: Verifizierte Inserate: Schnittstelle für isVerified-Flag Admin.</t>
   </si>
   <si>
     <t xml:space="preserve">04. - 12.Nov </t>
@@ -208,116 +213,114 @@
     <t xml:space="preserve">Auflistung von Jobinseraten mit Detailansicht. </t>
   </si>
   <si>
-    <t xml:space="preserve">Wir spätestens bis  Montag erledigt. (Suada)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usability Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufgabenblatt erstellen, Gedanken machen zu ‚How to...‘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ablauf, ScreenCapture Tool?, laut denken &amp; notieren etc. (Simone)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. - 14.Nov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserate erfassen: CompanyId des angemeldeten users mitgeben. (Backendteil)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin dashboard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Seiten: 
+    <t>Wir spätestens bis  Montag erledigt. (Suada)</t>
+  </si>
+  <si>
+    <t>Usability Test</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt erstellen, Gedanken machen zu ‚How to...‘</t>
+  </si>
+  <si>
+    <t>Ablauf, ScreenCapture Tool?, laut denken &amp; notieren etc. (Simone)</t>
+  </si>
+  <si>
+    <t>7. - 14.Nov</t>
+  </si>
+  <si>
+    <t>Inserate erfassen: CompanyId des angemeldeten users mitgeben. (Backendteil)</t>
+  </si>
+  <si>
+    <t>Admin dashboard.</t>
+  </si>
+  <si>
+    <t>2 Seiten: 
 - adminVerify
 - adminAll
 (Simone)</t>
   </si>
   <si>
-    <t xml:space="preserve">Testdaten in DB laden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timo &amp; Michael (Simone)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtermöglichkeiten (Backend)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eventuell (Suada)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milestone 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suchfunktion auf Jobinserate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting 21.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skills in Joblisting integrieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserate erfassen: Erfassung erweiteren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filterfunktion auf Jobinserate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB erweitern mit Company.Website, Joblisting.Bewerbungsfrist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserate erfassen: Datenbank mit UserId erweitern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daten (z.B. companyId aus Token nehmen) (Simone)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surprise feature</t>
+    <t>Testdaten in DB laden</t>
+  </si>
+  <si>
+    <t>Timo &amp; Michael (Simone)</t>
+  </si>
+  <si>
+    <t>Filtermöglichkeiten (Backend)</t>
+  </si>
+  <si>
+    <t>Eventuell (Suada)</t>
+  </si>
+  <si>
+    <t>Milestone 3</t>
+  </si>
+  <si>
+    <t>Suchfunktion auf Jobinserate</t>
+  </si>
+  <si>
+    <t>Meeting 21.11.</t>
+  </si>
+  <si>
+    <t>Skills in Joblisting integrieren</t>
+  </si>
+  <si>
+    <t>Inserate erfassen: Erfassung erweiteren.</t>
+  </si>
+  <si>
+    <t>Filterfunktion auf Jobinserate</t>
+  </si>
+  <si>
+    <t>DB erweitern mit Company.Website, Joblisting.Bewerbungsfrist</t>
+  </si>
+  <si>
+    <t>Inserate erfassen: Datenbank mit UserId erweitern.</t>
+  </si>
+  <si>
+    <t>Daten (z.B. companyId aus Token nehmen) (Simone)</t>
+  </si>
+  <si>
+    <t>Surprise feature</t>
   </si>
   <si>
     <t xml:space="preserve">Needs to be cool and heapful for the </t>
   </si>
   <si>
-    <t xml:space="preserve">für Benutzer: change Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserate erfassen: UserId des angemeldeten users mitgeben. (Frontendteil)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… und CompanyId, Skills, Website, Bewerbungsfrist (Simone)
+    <t>für Benutzer: change Password</t>
+  </si>
+  <si>
+    <t>Inserate erfassen: UserId des angemeldeten users mitgeben. (Frontendteil)</t>
+  </si>
+  <si>
+    <t>… und CompanyId, Skills, Website, Bewerbungsfrist (Simone)
 Anm.: machen Timo und Michael</t>
   </si>
   <si>
-    <t xml:space="preserve">Inserate bearbeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtermöglichkeiten (Frontend)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registrieren: Deutsche Formulierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wenn zu viel Zeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CompanyId wird automatisch in Registering-Form eingefüllt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">für Admin: wenn Inserat/Benutzer zurückgewiesen wird, muss ein Kommentar erfasst werden können.</t>
+    <t>Inserate bearbeiten</t>
+  </si>
+  <si>
+    <t>Filtermöglichkeiten (Frontend)</t>
+  </si>
+  <si>
+    <t>Registrieren: Deutsche Formulierung</t>
+  </si>
+  <si>
+    <t>wenn zu viel Zeit</t>
+  </si>
+  <si>
+    <t>CompanyId wird automatisch in Registering-Form eingefüllt</t>
+  </si>
+  <si>
+    <t>für Admin: wenn Inserat/Benutzer zurückgewiesen wird, muss ein Kommentar erfasst werden können.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/\ MMM"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -326,22 +329,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -362,7 +350,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -382,31 +370,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Bahnschrift SemiBold Condensed"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -430,220 +393,227 @@
     </fill>
   </fills>
   <borders count="10">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -702,14 +672,30 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>545400</xdr:colOff>
@@ -722,9 +708,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -751,15 +743,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -767,7 +766,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr lang="de-DE" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -775,7 +774,7 @@
             </a:rPr>
             <a:t>HINWEISE</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -786,7 +785,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -794,7 +793,7 @@
             </a:rPr>
             <a:t>Bei Änderungen die Zelle VERSION aktualisieren!</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -805,7 +804,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -813,7 +812,7 @@
             </a:rPr>
             <a:t>Schreibt bei Bemerkungen euren Name hin. z.B. (name)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -824,7 +823,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -832,7 +831,7 @@
             </a:rPr>
             <a:t>Wenn jemand schon eine Bemerkung gemacht hat darf man die eigene Bemerkung  hinzufügen. </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -843,7 +842,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -851,7 +850,7 @@
             </a:rPr>
             <a:t>z.B. I love chocolate. (name 1) Dark chocolate is my favourite! (name2)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -862,7 +861,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -870,7 +869,7 @@
             </a:rPr>
             <a:t>Bei der Spalte DATUM ist das Datum der Fertigstellung der Aufgabe wichtiger. Wenn ihr Aufgabe aber noch nicht beendet ist schreibt provisorisch den Beginn und eventuell die Deadline.  z.B. 1.Nov - 4.Nov oder 1.Nov - ? (Vermeidet aber so gut es geht aber das Letztere.)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -881,7 +880,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -889,7 +888,7 @@
             </a:rPr>
             <a:t>Wichtige und Dringende Angelegenheiten könnten ihr entsprechend highlighten. </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -900,7 +899,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -908,7 +907,7 @@
             </a:rPr>
             <a:t>Ihr dürft an diesem Dokument Verbesserungen unternehmen :D (das solltet ihr auch!)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -919,7 +918,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -927,7 +926,7 @@
             </a:rPr>
             <a:t>Fügt nicht Dinge, die noch nie mit der Gruppe besprochen worden sind hier ein. (Dies sorgt für Verwirrung.) </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -937,7 +936,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -948,7 +947,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1800" spc="-1" strike="noStrike">
+            <a:rPr lang="de-DE" sz="1800" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -956,7 +955,7 @@
             </a:rPr>
             <a:t>Möge die Ordnung und Übersichtlichkeit dieses Dokuments mit uns sein!</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1800" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1800" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -966,7 +965,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="de-DE" sz="1800" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="de-DE" sz="1800" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -989,12 +988,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Grafik 4" descr=""/>
+        <xdr:cNvPr id="3" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="60001" t="0" r="0" b="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="60001"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1015,52 +1020,344 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:R53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AMK53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="32.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="27.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="35.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="10.57"/>
+    <col min="1" max="1" width="10.53125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.06640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.1328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.53125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.53125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.53125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.9296875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12" style="2" customWidth="1"/>
+    <col min="16" max="16" width="27.59765625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.53125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="35.796875" style="2" customWidth="1"/>
+    <col min="19" max="1025" width="10.53125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="3" customFormat="true" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1068,7 +1365,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:18" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1077,9 +1374,9 @@
       <c r="E4" s="11"/>
       <c r="F4" s="10"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:18" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
@@ -1097,7 +1394,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:18" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1109,11 +1406,11 @@
       <c r="F6" s="15"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="16">
         <v>43383</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -1125,11 +1422,11 @@
       <c r="F7" s="15"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="23.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:18" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="16">
         <v>43383</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -1141,11 +1438,11 @@
       <c r="F8" s="15"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="25.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:18" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="16">
         <v>43390</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1157,11 +1454,11 @@
       <c r="F9" s="15"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="16">
         <v>43392</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -1175,7 +1472,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:18" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
@@ -1191,11 +1488,11 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:18" ht="20.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="16">
         <v>43390</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -1207,7 +1504,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:18" ht="32.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1518,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B14" s="17"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1229,7 +1526,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:18" ht="31.5" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
@@ -1253,7 +1550,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:18" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B16" s="12" t="s">
         <v>3</v>
       </c>
@@ -1301,11 +1598,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="47.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:18" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="16">
         <v>43381</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -1319,7 +1616,7 @@
       <c r="H17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="16" t="n">
+      <c r="I17" s="16">
         <v>43381</v>
       </c>
       <c r="J17" s="15" t="s">
@@ -1332,7 +1629,7 @@
       <c r="N17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="16" t="n">
+      <c r="O17" s="16">
         <v>43416</v>
       </c>
       <c r="P17" s="15" t="s">
@@ -1343,11 +1640,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="16">
         <v>43394</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -1361,7 +1658,7 @@
       <c r="H18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="16" t="n">
+      <c r="I18" s="16">
         <v>43394</v>
       </c>
       <c r="J18" s="15" t="s">
@@ -1383,11 +1680,11 @@
       </c>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="16">
         <v>43394</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -1401,7 +1698,7 @@
       <c r="H19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="16" t="n">
+      <c r="I19" s="16">
         <v>43395</v>
       </c>
       <c r="J19" s="15" t="s">
@@ -1423,7 +1720,7 @@
       </c>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="14" t="s">
         <v>38</v>
       </c>
@@ -1441,7 +1738,7 @@
       <c r="H20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="16" t="n">
+      <c r="I20" s="16">
         <v>43395</v>
       </c>
       <c r="J20" s="15" t="s">
@@ -1463,7 +1760,7 @@
       </c>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:18" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="14" t="s">
         <v>43</v>
       </c>
@@ -1483,7 +1780,7 @@
       <c r="H21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="16" t="n">
+      <c r="I21" s="16">
         <v>43404</v>
       </c>
       <c r="J21" s="15" t="s">
@@ -1507,7 +1804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:18" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="14" t="s">
         <v>43</v>
       </c>
@@ -1527,7 +1824,7 @@
       <c r="H22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="16" t="n">
+      <c r="I22" s="16">
         <v>43411</v>
       </c>
       <c r="J22" s="15" t="s">
@@ -1551,7 +1848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="14" t="s">
         <v>43</v>
       </c>
@@ -1586,7 +1883,7 @@
       <c r="N23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="O23" s="18" t="n">
+      <c r="O23" s="18">
         <v>43429</v>
       </c>
       <c r="P23" s="15" t="s">
@@ -1597,7 +1894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="59.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:18" ht="59.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="14" t="s">
         <v>43</v>
       </c>
@@ -1610,7 +1907,7 @@
       <c r="E24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="7"/>
       <c r="H24" s="14" t="s">
         <v>38</v>
@@ -1630,7 +1927,7 @@
       <c r="N24" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="O24" s="21" t="n">
+      <c r="O24" s="21">
         <v>43429</v>
       </c>
       <c r="P24" s="22" t="s">
@@ -1641,7 +1938,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="14" t="s">
         <v>43</v>
       </c>
@@ -1681,11 +1978,11 @@
       <c r="Q25" s="24"/>
       <c r="R25" s="25"/>
     </row>
-    <row r="26" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:18" ht="32.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="16" t="n">
+      <c r="C26" s="16">
         <v>43429</v>
       </c>
       <c r="D26" s="15" t="s">
@@ -1717,11 +2014,11 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="15"/>
     </row>
-    <row r="27" customFormat="false" ht="37.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:18" ht="37.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="16" t="n">
+      <c r="C27" s="16">
         <v>43429</v>
       </c>
       <c r="D27" s="15" t="s">
@@ -1757,7 +2054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="52.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:18" ht="52.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>76</v>
       </c>
@@ -1789,7 +2086,7 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="15"/>
     </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="14"/>
       <c r="C29" s="16"/>
       <c r="D29" s="15"/>
@@ -1799,7 +2096,7 @@
       <c r="H29" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="18" t="n">
+      <c r="I29" s="18">
         <v>43429</v>
       </c>
       <c r="J29" s="15" t="s">
@@ -1815,7 +2112,7 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="15"/>
     </row>
-    <row r="30" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:18" ht="32.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="14"/>
       <c r="C30" s="16"/>
       <c r="D30" s="15"/>
@@ -1836,12 +2133,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G31" s="7"/>
       <c r="H31" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="26" t="n">
+      <c r="I31" s="26">
         <v>43430</v>
       </c>
       <c r="J31" s="14" t="s">
@@ -1850,7 +2147,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:18" ht="31.5" x14ac:dyDescent="0.45">
       <c r="G32" s="7"/>
       <c r="H32" s="14" t="s">
         <v>76</v>
@@ -1864,7 +2161,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="7:12" ht="15.75" x14ac:dyDescent="0.45">
       <c r="G33" s="7"/>
       <c r="H33" s="14" t="s">
         <v>76</v>
@@ -1876,12 +2173,12 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="61.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="7:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="G34" s="7"/>
       <c r="H34" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="14" t="n">
+      <c r="I34" s="14">
         <v>43430</v>
       </c>
       <c r="J34" s="14" t="s">
@@ -1890,74 +2187,69 @@
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="7:12" x14ac:dyDescent="0.45">
       <c r="G48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G53" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/ToDo Excel von Suada.xlsx
+++ b/docs/ToDo Excel von Suada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t xml:space="preserve">TEAM 8 TODO TABLE</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">Skills in Joblisting integrieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Timo,Michael)</t>
   </si>
   <si>
     <t xml:space="preserve">Inserate erfassen: Erfassung erweiteren.</t>
@@ -317,7 +320,7 @@
     <numFmt numFmtId="165" formatCode="DD/\ MMM"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -356,12 +359,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -384,29 +381,39 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Bahnschrift SemiBold Condensed"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -543,15 +550,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,15 +566,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,23 +594,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -607,11 +610,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -619,30 +622,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -709,7 +716,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>545400</xdr:colOff>
@@ -718,9 +725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -729,23 +736,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8513280" y="660600"/>
-          <a:ext cx="7377840" cy="3678120"/>
+          <a:off x="8393760" y="660600"/>
+          <a:ext cx="7278480" cy="3677760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -757,9 +759,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -767,15 +767,28 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>HINWEISE</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -786,15 +799,28 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Bei Änderungen die Zelle VERSION aktualisieren!</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -805,15 +831,28 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Schreibt bei Bemerkungen euren Name hin. z.B. (name)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -824,15 +863,28 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Wenn jemand schon eine Bemerkung gemacht hat darf man die eigene Bemerkung  hinzufügen. </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -843,15 +895,28 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>z.B. I love chocolate. (name 1) Dark chocolate is my favourite! (name2)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -862,15 +927,28 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Bei der Spalte DATUM ist das Datum der Fertigstellung der Aufgabe wichtiger. Wenn ihr Aufgabe aber noch nicht beendet ist schreibt provisorisch den Beginn und eventuell die Deadline.  z.B. 1.Nov - 4.Nov oder 1.Nov - ? (Vermeidet aber so gut es geht aber das Letztere.)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -881,15 +959,28 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Wichtige und Dringende Angelegenheiten könnten ihr entsprechend highlighten. </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -900,15 +991,28 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Ihr dürft an diesem Dokument Verbesserungen unternehmen :D (das solltet ihr auch!)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -919,15 +1023,28 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Fügt nicht Dinge, die noch nie mit der Gruppe besprochen worden sind hier ein. (Dies sorgt für Verwirrung.) </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -937,7 +1054,15 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="de-DE" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -948,15 +1073,28 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="de-DE" sz="1800" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Bahnschrift SemiBold Condensed"/>
             </a:rPr>
             <a:t>Möge die Ordnung und Übersichtlichkeit dieses Dokuments mit uns sein!</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="de-DE" sz="1800" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -966,7 +1104,15 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="de-DE" sz="1800" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -983,9 +1129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>679680</xdr:colOff>
+      <xdr:colOff>679320</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:rowOff>222120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -999,8 +1145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15980760" y="669960"/>
-          <a:ext cx="2158200" cy="3076560"/>
+          <a:off x="15762240" y="669960"/>
+          <a:ext cx="2138040" cy="3076200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1020,35 +1166,1061 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:R53"/>
+  <dimension ref="1:41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G13" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="32.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="27.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="35.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="10.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="10.3928571428571"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
     <row r="2" s="3" customFormat="true" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1056,904 +2228,977 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="2"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="15" t="n">
         <v>43383</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="23.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="15" t="n">
         <v>43383</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="25.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="15" t="n">
         <v>43390</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="15" t="n">
         <v>43392</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="15" t="n">
         <v>43390</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="N15" s="9" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="N15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="47.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="15" t="n">
         <v>43381</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="16" t="n">
+      <c r="I17" s="15" t="n">
         <v>43381</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="N17" s="14" t="s">
+      <c r="L17" s="12"/>
+      <c r="N17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="16" t="n">
+      <c r="O17" s="15" t="n">
         <v>43416</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="15" t="s">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="15" t="n">
         <v>43394</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="14" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="16" t="n">
+      <c r="I18" s="15" t="n">
         <v>43394</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="N18" s="14" t="s">
+      <c r="L18" s="14"/>
+      <c r="N18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15" t="s">
+      <c r="O18" s="14"/>
+      <c r="P18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="15"/>
+      <c r="R18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="15" t="n">
         <v>43394</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="16" t="n">
+      <c r="I19" s="15" t="n">
         <v>43395</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="N19" s="14" t="s">
+      <c r="L19" s="14"/>
+      <c r="N19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15" t="s">
+      <c r="O19" s="14"/>
+      <c r="P19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R19" s="15"/>
+      <c r="R19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="14" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="16" t="n">
+      <c r="I20" s="15" t="n">
         <v>43395</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="N20" s="14" t="s">
+      <c r="L20" s="14"/>
+      <c r="N20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15" t="s">
+      <c r="O20" s="14"/>
+      <c r="P20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R20" s="15"/>
+      <c r="R20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="14" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="16" t="n">
+      <c r="I21" s="15" t="n">
         <v>43404</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="N21" s="14" t="s">
+      <c r="L21" s="14"/>
+      <c r="N21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15" t="s">
+      <c r="O21" s="14"/>
+      <c r="P21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="15" t="s">
+      <c r="R21" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="14" t="s">
+      <c r="G22" s="6"/>
+      <c r="H22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="16" t="n">
+      <c r="I22" s="15" t="n">
         <v>43411</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="N22" s="14" t="s">
+      <c r="L22" s="14"/>
+      <c r="N22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15" t="s">
+      <c r="O22" s="14"/>
+      <c r="P22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="15" t="s">
+      <c r="R22" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="14" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O23" s="18" t="n">
+      <c r="O23" s="17" t="n">
         <v>43429</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="P23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="15" t="s">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="59.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="14" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O24" s="21" t="n">
+      <c r="O24" s="20" t="n">
         <v>43429</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="P24" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19" t="s">
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="14" t="s">
+      <c r="G25" s="6"/>
+      <c r="H25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="N25" s="20" t="s">
+      <c r="L25" s="14"/>
+      <c r="N25" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23" t="s">
+      <c r="O25" s="22"/>
+      <c r="P25" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="25"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="16" t="n">
+      <c r="C26" s="15" t="n">
         <v>43429</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="14" t="s">
+      <c r="E26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="N26" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="37.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="15" t="n">
+        <v>43429</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="N26" s="14" t="s">
+      <c r="L27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="15"/>
-    </row>
-    <row r="27" customFormat="false" ht="37.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="14" t="s">
+      <c r="O27" s="14"/>
+      <c r="P27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="52.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="16" t="n">
+      <c r="C28" s="15"/>
+      <c r="D28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="17" t="n">
         <v>43429</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="14" t="s">
+      <c r="J29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="13"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="52.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="15"/>
-    </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="14"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="18" t="n">
-        <v>43429</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" s="15"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="15"/>
-    </row>
-    <row r="30" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="14"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25" t="s">
+      <c r="J30" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G31" s="7"/>
-      <c r="H31" s="14" t="s">
+      <c r="G31" s="6"/>
+      <c r="H31" s="13" t="s">
         <v>76</v>
       </c>
       <c r="I31" s="26" t="n">
         <v>43430</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="J31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="7"/>
-      <c r="H32" s="14" t="s">
+      <c r="G32" s="6"/>
+      <c r="H32" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" s="14" t="s">
+      <c r="I32" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="J32" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="7"/>
-      <c r="H33" s="14" t="s">
+      <c r="G33" s="6"/>
+      <c r="H33" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="61.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="7"/>
-      <c r="H34" s="14" t="s">
+      <c r="G34" s="6"/>
+      <c r="H34" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="14" t="n">
+      <c r="I34" s="13" t="n">
         <v>43430</v>
       </c>
-      <c r="J34" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G53" s="7"/>
-    </row>
+      <c r="J34" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/docs/ToDo Excel von Suada.xlsx
+++ b/docs/ToDo Excel von Suada.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="95">
   <si>
     <t xml:space="preserve">TEAM 8 TODO TABLE</t>
   </si>
@@ -533,7 +533,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -619,6 +619,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1168,8 +1172,8 @@
   </sheetPr>
   <dimension ref="1:41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G13" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J19" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q24" activeCellId="0" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2927,7 +2931,9 @@
       <c r="P24" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q24" s="18"/>
+      <c r="Q24" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="R24" s="18" t="s">
         <v>71</v>
       </c>
@@ -2965,12 +2971,12 @@
       <c r="N25" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22" t="s">
+      <c r="O25" s="23"/>
+      <c r="P25" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="13" t="s">
@@ -3025,7 +3031,7 @@
       <c r="E27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="26" t="s">
         <v>78</v>
       </c>
       <c r="G27" s="6"/>
@@ -3124,14 +3130,14 @@
       <c r="H30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24" t="s">
+      <c r="K30" s="24"/>
+      <c r="L30" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3140,7 +3146,7 @@
       <c r="H31" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="26" t="n">
+      <c r="I31" s="27" t="n">
         <v>43430</v>
       </c>
       <c r="J31" s="13" t="s">

--- a/docs/ToDo Excel von Suada.xlsx
+++ b/docs/ToDo Excel von Suada.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="108">
   <si>
     <t xml:space="preserve">TEAM 8 TODO TABLE</t>
   </si>
@@ -293,9 +293,27 @@
 Anm.: machen Timo und Michael</t>
   </si>
   <si>
+    <t xml:space="preserve">Arbeitsjournal nachführen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Timo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting 28.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User + Company abfrage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inserate bearbeiten</t>
   </si>
   <si>
+    <t xml:space="preserve">UsabilityTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test auswerten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filtermöglichkeiten (Frontend)</t>
   </si>
   <si>
@@ -309,6 +327,27 @@
   </si>
   <si>
     <t xml:space="preserve">für Admin: wenn Inserat/Benutzer zurückgewiesen wird, muss ein Kommentar erfasst werden können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting 28.11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rückmeldungspage an user nach erstellen von user und inserat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttons überall gleich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jodlistingdetails Darstellung grösser übersichlicher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JobListing Erfassung grössere eingabe felder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">löschen inserat admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bearbeiten user/companny durch user</t>
   </si>
 </sst>
 </file>
@@ -320,7 +359,7 @@
     <numFmt numFmtId="165" formatCode="DD/\ MMM"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -400,7 +439,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -409,11 +449,6 @@
       <color rgb="FF000000"/>
       <name val="Bahnschrift SemiBold Condensed"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -436,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -507,6 +542,13 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -533,7 +575,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -646,6 +688,22 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -729,9 +787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -740,8 +798,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8393760" y="660600"/>
-          <a:ext cx="7278480" cy="3677760"/>
+          <a:off x="8279640" y="660600"/>
+          <a:ext cx="7173360" cy="3677400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1133,9 +1191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>679320</xdr:colOff>
+      <xdr:colOff>678960</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>222120</xdr:rowOff>
+      <xdr:rowOff>221760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1149,8 +1207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15762240" y="669960"/>
-          <a:ext cx="2138040" cy="3076200"/>
+          <a:off x="15543360" y="669960"/>
+          <a:ext cx="2118600" cy="3075840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1172,31 +1230,31 @@
   </sheetPr>
   <dimension ref="1:41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J19" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q24" activeCellId="0" sqref="Q24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E25" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L40" activeCellId="0" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,7 +2945,9 @@
       <c r="P23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="R23" s="14" t="s">
         <v>65</v>
       </c>
@@ -3005,7 +3065,7 @@
         <v>79</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L26" s="14"/>
       <c r="N26" s="13" t="s">
@@ -3031,7 +3091,7 @@
       <c r="E27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="14" t="s">
         <v>78</v>
       </c>
       <c r="G27" s="6"/>
@@ -3045,7 +3105,7 @@
         <v>82</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>83</v>
@@ -3083,23 +3143,35 @@
         <v>87</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="N28" s="13"/>
+      <c r="N28" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
+      <c r="P28" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="Q28" s="12"/>
-      <c r="R28" s="14"/>
+      <c r="R28" s="26" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="13" t="s">
         <v>76</v>
@@ -3108,17 +3180,23 @@
         <v>43429</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="14"/>
-      <c r="N29" s="13"/>
+      <c r="N29" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
+      <c r="P29" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="Q29" s="12"/>
-      <c r="R29" s="14"/>
+      <c r="R29" s="26" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="13"/>
@@ -3134,7 +3212,7 @@
         <v>66</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K30" s="24"/>
       <c r="L30" s="25" t="s">
@@ -3150,7 +3228,7 @@
         <v>43430</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K31" s="11" t="s">
         <v>11</v>
@@ -3163,10 +3241,10 @@
         <v>76</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -3183,7 +3261,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" customFormat="false" ht="61.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="60.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G34" s="6"/>
       <c r="H34" s="13" t="s">
         <v>76</v>
@@ -3192,10 +3270,90 @@
         <v>43430</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="L34" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="36.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="30"/>
+      <c r="L36" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" s="30"/>
+      <c r="L37" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="29"/>
+      <c r="L39" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" s="29"/>
+      <c r="L40" s="31" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
